--- a/medicine/Psychotrope/Port_Charlotte_(distillerie)/Port_Charlotte_(distillerie).xlsx
+++ b/medicine/Psychotrope/Port_Charlotte_(distillerie)/Port_Charlotte_(distillerie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Port Charlotte est une ancienne distillerie de whisky située sur l’île d'Islay, sur la côte ouest de l’Écosse qui devait initialement ouvrir courant 2009[1], avant de voir son ouverture repoussée à une date inconnue en raison de la crise financière mondiale[2]. Fondée par la distillerie voisine de Bruichladdich, elle s'est établie à Port Charlotte dans les bâtiments de l'ancienne distillerie Loch Indaal fermée en 1929[3].
+Port Charlotte est une ancienne distillerie de whisky située sur l’île d'Islay, sur la côte ouest de l’Écosse qui devait initialement ouvrir courant 2009, avant de voir son ouverture repoussée à une date inconnue en raison de la crise financière mondiale. Fondée par la distillerie voisine de Bruichladdich, elle s'est établie à Port Charlotte dans les bâtiments de l'ancienne distillerie Loch Indaal fermée en 1929.
 Son équipement provient de l'ancienne distillerie d'Inverleven à Dumbarton qui a été démolie en 2003.
 Les whiskies de la marque Port Charlotte sont distillés au sein de la distillerie Bruichladdich.
 </t>
@@ -516,10 +528,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">La distillerie Lochindaal (1829-1929)
-Située au cœur du village de Port Charlotte, la distillerie Lochindaal a été fondée en 1829 par Colin Campbell. Elle porte le nom du loch marin situé au nord de l'île, le Loch Indaal. Durant cent ans elle voit se succéder à sa tête de nombreux propriétaires avant de fermer finalement en 1929, à la suite de l'instauration de la Prohibition aux États-Unis[3]. Ses bâtiments demeurent toutefois intacts, abritant notamment un garage et une auberge de jeunesse.
-La distillerie Port Charlotte (depuis 2009)
-En 2003, l'annonce de la démolition de la distillerie d'Inverleven donne l'idée à Jim McEwan, directeur de la production chez Bruichladdich, de racheter l'appareil de production pour le ré-implanter sur Islay. Aidé d'une dizaine d'ouvriers, il le démonte pièce par pièce et le transfère par barge sur l'île[3]. L'annonce officielle de ce projet est faite le 2 mars 2007 dans un communiqué de presse de Bruichladdich[2]
+          <t>La distillerie Lochindaal (1829-1929)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Située au cœur du village de Port Charlotte, la distillerie Lochindaal a été fondée en 1829 par Colin Campbell. Elle porte le nom du loch marin situé au nord de l'île, le Loch Indaal. Durant cent ans elle voit se succéder à sa tête de nombreux propriétaires avant de fermer finalement en 1929, à la suite de l'instauration de la Prohibition aux États-Unis. Ses bâtiments demeurent toutefois intacts, abritant notamment un garage et une auberge de jeunesse.
 </t>
         </is>
       </c>
@@ -545,10 +560,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Caractéristiques</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>La distillerie Port Charlotte (depuis 2009)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2003, l'annonce de la démolition de la distillerie d'Inverleven donne l'idée à Jim McEwan, directeur de la production chez Bruichladdich, de racheter l'appareil de production pour le ré-implanter sur Islay. Aidé d'une dizaine d'ouvriers, il le démonte pièce par pièce et le transfère par barge sur l'île. L'annonce officielle de ce projet est faite le 2 mars 2007 dans un communiqué de presse de Bruichladdich
+</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -571,10 +597,40 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Port_Charlotte_(distillerie)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Port_Charlotte_(distillerie)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Gamme de produits</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
